--- a/backend/projects/project-a-123-sunset-blvd/data/01_LAND_PURCHASE/Stamp_Duty_Calculation.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/01_LAND_PURCHASE/Stamp_Duty_Calculation.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculation" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculation" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,25 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,13 +476,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-    </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
@@ -513,20 +487,735 @@
           <t>NSW First Home Buyer</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>Concession NOT applied</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>43455</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Item 5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>38608</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35012</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38643</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>19747</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Item 6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>33546</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7715</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33393</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>17275</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21247</v>
+      </c>
+      <c r="D8" t="n">
+        <v>38375</v>
+      </c>
+      <c r="E8" t="n">
+        <v>41832</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>41770</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18029</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22362</v>
+      </c>
+      <c r="E9" t="n">
+        <v>39038</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>22405</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>37246</v>
+      </c>
+      <c r="D10" t="n">
+        <v>46890</v>
+      </c>
+      <c r="E10" t="n">
+        <v>19489</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>24179</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>17568</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7014</v>
+      </c>
+      <c r="E11" t="n">
+        <v>38212</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>41303</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>17867</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9891</v>
+      </c>
+      <c r="E12" t="n">
+        <v>40156</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35461</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>32505</v>
+      </c>
+      <c r="D13" t="n">
+        <v>29716</v>
+      </c>
+      <c r="E13" t="n">
+        <v>31505</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7284</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>23998</v>
+      </c>
+      <c r="D14" t="n">
+        <v>27698</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15290</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>17523</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16104</v>
+      </c>
+      <c r="E15" t="n">
+        <v>39405</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>17014</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4410</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6438</v>
+      </c>
+      <c r="E16" t="n">
+        <v>27506</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>47271</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3221</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10265</v>
+      </c>
+      <c r="E17" t="n">
+        <v>30737</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4954</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5602</v>
+      </c>
+      <c r="D18" t="n">
+        <v>33518</v>
+      </c>
+      <c r="E18" t="n">
+        <v>36435</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19910</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>43137</v>
+      </c>
+      <c r="D19" t="n">
+        <v>45570</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17248</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>29890</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>38481</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3173</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>14532</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>37845</v>
+      </c>
+      <c r="D21" t="n">
+        <v>45346</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7118</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>12519</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>45978</v>
+      </c>
+      <c r="D22" t="n">
+        <v>27083</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37921</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10830</v>
+      </c>
+      <c r="D23" t="n">
+        <v>24186</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14851</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34791</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>12535</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25478</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35388</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>9262</v>
+      </c>
+      <c r="D25" t="n">
+        <v>32811</v>
+      </c>
+      <c r="E25" t="n">
+        <v>19914</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23296</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>16583</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7219</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8226</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38740</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>18797</v>
+      </c>
+      <c r="D27" t="n">
+        <v>14015</v>
+      </c>
+      <c r="E27" t="n">
+        <v>36443</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>40933</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>33038</v>
+      </c>
+      <c r="D28" t="n">
+        <v>46591</v>
+      </c>
+      <c r="E28" t="n">
+        <v>13954</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>18982</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>45438</v>
+      </c>
+      <c r="D29" t="n">
+        <v>23667</v>
+      </c>
+      <c r="E29" t="n">
+        <v>30889</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4692</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>13717</v>
+      </c>
+      <c r="D30" t="n">
+        <v>12235</v>
+      </c>
+      <c r="E30" t="n">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>18371</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>37368</v>
+      </c>
+      <c r="D31" t="n">
+        <v>32712</v>
+      </c>
+      <c r="E31" t="n">
+        <v>31299</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>29135</v>
+      </c>
+      <c r="D32" t="n">
+        <v>16043</v>
+      </c>
+      <c r="E32" t="n">
+        <v>29399</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>12007</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2521</v>
+      </c>
+      <c r="D33" t="n">
+        <v>12846</v>
+      </c>
+      <c r="E33" t="n">
+        <v>12697</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2111</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9936</v>
+      </c>
+      <c r="D34" t="n">
+        <v>49363</v>
+      </c>
+      <c r="E34" t="n">
+        <v>48034</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34485</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>44231</v>
+      </c>
+      <c r="D35" t="n">
+        <v>21449</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10231</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>49604</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>16522</v>
+      </c>
+      <c r="D36" t="n">
+        <v>46337</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9160</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>28693</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>16825</v>
+      </c>
+      <c r="D37" t="n">
+        <v>35562</v>
+      </c>
+      <c r="E37" t="n">
+        <v>20581</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>27865</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3570</v>
+      </c>
+      <c r="D38" t="n">
+        <v>44164</v>
+      </c>
+      <c r="E38" t="n">
+        <v>17788</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10369</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>46271</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10032</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>23888</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>39204</v>
+      </c>
+      <c r="D40" t="n">
+        <v>22326</v>
+      </c>
+      <c r="E40" t="n">
+        <v>18686</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>48519</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>4914</v>
+      </c>
+      <c r="D41" t="n">
+        <v>25819</v>
+      </c>
+      <c r="E41" t="n">
+        <v>45979</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>30481</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>18064</v>
+      </c>
+      <c r="D42" t="n">
+        <v>49878</v>
+      </c>
+      <c r="E42" t="n">
+        <v>49999</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6023</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>23555</v>
+      </c>
+      <c r="D43" t="n">
+        <v>34149</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9156</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
